--- a/biology/Zoologie/Fukuisaurus/Fukuisaurus.xlsx
+++ b/biology/Zoologie/Fukuisaurus/Fukuisaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fukuisaurus tetoriensis
 Fukuisaurus (フクイサウルス, Fukuisaurusu?) est un genre éteint de dinosaures ornithischiens, un Hadrosauroidea basal du Crétacé inférieur retrouvé au Japon.
-L'espèce type et seule espèce, Fukuisaurus tetoriensis, a été nommée et décrite par Yoshitsugu Kobayashi et Yoichi Azuma[1]. Le nom générique fait référence à Fukui et le nom spécifique au groupe Tetori.
+L'espèce type et seule espèce, Fukuisaurus tetoriensis, a été nommée et décrite par Yoshitsugu Kobayashi et Yoichi Azuma. Le nom générique fait référence à Fukui et le nom spécifique au groupe Tetori.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Datation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est basé sur des restes (référencés FPDM-V-40-1 et FPDM-V-40-2) retrouvés en 1989 dans une strate datée du Barrémien supérieur de la formation géologique Kitadani à Katsuyama, dans la préfecture de Fukui[1], soit il y a environ 127 Ma (millions d'années).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est basé sur des restes (référencés FPDM-V-40-1 et FPDM-V-40-2) retrouvés en 1989 dans une strate datée du Barrémien supérieur de la formation géologique Kitadani à Katsuyama, dans la préfecture de Fukui, soit il y a environ 127 Ma (millions d'années).
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa taille est estimée à 4,50 mètres de long pour une masse de 400 kg[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa taille est estimée à 4,50 mètres de long pour une masse de 400 kg.
 Fukuisaurus était probablement un bipède (possiblement quadrupède). Il possède une forme semblable à celle de d'Iguanodon, d'Ouranosaurus et d'Altirhinus. Une analyse cladistique le classe comme une forme basale des Hadrosauroidea.
-Un autre hadrosauroïde basal, Koshisaurus katsuyama a été découvert dans la même carrière, dans un niveau stratigraphique un peu plus récent[3].
+Un autre hadrosauroïde basal, Koshisaurus katsuyama a été découvert dans la même carrière, dans un niveau stratigraphique un peu plus récent.
 </t>
         </is>
       </c>
